--- a/Ecuador/Boletín/Medios/sitios_integracion_ecuador.xlsx
+++ b/Ecuador/Boletín/Medios/sitios_integracion_ecuador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Desktop\Trabajo\BX\Ecuador\Boletín\Medios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{206162DC-FF92-49C3-9908-62FA871C4EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7014E3-2639-4FD8-BA41-1054D2EF9EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2730" windowWidth="16245" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,54 +20,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Integración</t>
   </si>
   <si>
+    <t>lahora.com.ec</t>
+  </si>
+  <si>
+    <t>extra.ec</t>
+  </si>
+  <si>
     <t>elmercurio.com.ec</t>
   </si>
   <si>
-    <t>extra.ec</t>
+    <t>expreso.ec</t>
+  </si>
+  <si>
+    <t>lanacion.com.ec</t>
+  </si>
+  <si>
+    <t>diariocorreo.com.ec</t>
+  </si>
+  <si>
+    <t>ecuadorenvivo.com</t>
+  </si>
+  <si>
+    <t>vistazo.com</t>
+  </si>
+  <si>
+    <t>teleamazonas.com</t>
   </si>
   <si>
     <t>gk.city</t>
   </si>
   <si>
-    <t>lahora.com.ec</t>
+    <t>quenoticias.com</t>
+  </si>
+  <si>
+    <t>eltelegrafo.com.ec</t>
   </si>
   <si>
     <t>primicias.ec</t>
   </si>
   <si>
-    <t>teleamazonas.com</t>
-  </si>
-  <si>
-    <t>vistazo.com</t>
+    <t>elcomercio.com</t>
+  </si>
+  <si>
+    <t>radiocolosal.com</t>
   </si>
   <si>
     <t>zaracaytv.com</t>
   </si>
   <si>
-    <t>ecuadorenvivo.com</t>
-  </si>
-  <si>
-    <t>expreso.ec</t>
+    <t>ecuadorendirecto.com</t>
+  </si>
+  <si>
+    <t>elnorte.ec</t>
+  </si>
+  <si>
+    <t>pichinchacomunicaciones.com.ec</t>
   </si>
   <si>
     <t>cronica.com.ec</t>
   </si>
   <si>
-    <t>ecuadorendirecto.com</t>
-  </si>
-  <si>
-    <t>elcomercio.com</t>
-  </si>
-  <si>
-    <t>elnorte.ec</t>
+    <t>tctelevision.com</t>
   </si>
   <si>
     <t>elvanguardistaonline.com</t>
+  </si>
+  <si>
+    <t>laverdad.ec</t>
+  </si>
+  <si>
+    <t>manabinoticias.com</t>
+  </si>
+  <si>
+    <t>ecuadornews.com.ec</t>
+  </si>
+  <si>
+    <t>srradio.com.ec</t>
+  </si>
+  <si>
+    <t>notimundo.com.ec</t>
+  </si>
+  <si>
+    <t>asambleanacional.gob.ec</t>
+  </si>
+  <si>
+    <t>centroecuador.ec</t>
+  </si>
+  <si>
+    <t>cre.com.ec</t>
+  </si>
+  <si>
+    <t>ecuador221.com.ec</t>
+  </si>
+  <si>
+    <t>radiocentro.com.ec</t>
+  </si>
+  <si>
+    <t>trafficamerican.com</t>
   </si>
   <si>
     <t>Author</t>
@@ -446,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -456,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -467,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +625,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,6 +633,150 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>1</v>
       </c>
     </row>

--- a/Ecuador/Boletín/Medios/sitios_integracion_ecuador.xlsx
+++ b/Ecuador/Boletín/Medios/sitios_integracion_ecuador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Desktop\Trabajo\BX\Ecuador\Boletín\Medios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7014E3-2639-4FD8-BA41-1054D2EF9EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F940E13-E03C-42A8-98E6-43D503D9888D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,77 +20,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Integración</t>
   </si>
   <si>
-    <t>lahora.com.ec</t>
-  </si>
-  <si>
-    <t>extra.ec</t>
-  </si>
-  <si>
-    <t>elmercurio.com.ec</t>
-  </si>
-  <si>
-    <t>expreso.ec</t>
-  </si>
-  <si>
     <t>lanacion.com.ec</t>
   </si>
   <si>
-    <t>diariocorreo.com.ec</t>
-  </si>
-  <si>
-    <t>ecuadorenvivo.com</t>
-  </si>
-  <si>
-    <t>vistazo.com</t>
-  </si>
-  <si>
-    <t>teleamazonas.com</t>
-  </si>
-  <si>
-    <t>gk.city</t>
-  </si>
-  <si>
     <t>quenoticias.com</t>
   </si>
   <si>
-    <t>eltelegrafo.com.ec</t>
-  </si>
-  <si>
     <t>primicias.ec</t>
   </si>
   <si>
-    <t>elcomercio.com</t>
-  </si>
-  <si>
     <t>radiocolosal.com</t>
   </si>
   <si>
-    <t>zaracaytv.com</t>
-  </si>
-  <si>
     <t>ecuadorendirecto.com</t>
   </si>
   <si>
-    <t>elnorte.ec</t>
-  </si>
-  <si>
     <t>pichinchacomunicaciones.com.ec</t>
   </si>
   <si>
-    <t>cronica.com.ec</t>
-  </si>
-  <si>
-    <t>tctelevision.com</t>
-  </si>
-  <si>
-    <t>elvanguardistaonline.com</t>
-  </si>
-  <si>
     <t>laverdad.ec</t>
   </si>
   <si>
@@ -100,16 +52,7 @@
     <t>ecuadornews.com.ec</t>
   </si>
   <si>
-    <t>srradio.com.ec</t>
-  </si>
-  <si>
     <t>notimundo.com.ec</t>
-  </si>
-  <si>
-    <t>asambleanacional.gob.ec</t>
-  </si>
-  <si>
-    <t>centroecuador.ec</t>
   </si>
   <si>
     <t>cre.com.ec</t>
@@ -500,17 +443,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -521,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,158 +568,6 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
         <v>1</v>
       </c>
     </row>
